--- a/clean/unit/clean_unit/08004C.xlsx
+++ b/clean/unit/clean_unit/08004C.xlsx
@@ -432,7 +432,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>fl</t>
         </is>
       </c>
       <c r="D4">
@@ -452,7 +452,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>pg</t>
         </is>
       </c>
       <c r="D5">
@@ -472,7 +472,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D6">
@@ -507,7 +507,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>pg</t>
         </is>
       </c>
       <c r="D8">
@@ -527,7 +527,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>fl</t>
         </is>
       </c>
       <c r="D9">
@@ -562,7 +562,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D11">
@@ -582,7 +582,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>mmol/L</t>
+          <t>mmol/l</t>
         </is>
       </c>
       <c r="D12">
@@ -632,7 +632,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D15">
@@ -672,7 +672,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D17">
@@ -692,7 +692,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>pg</t>
         </is>
       </c>
       <c r="D18">
@@ -712,7 +712,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>fl</t>
         </is>
       </c>
       <c r="D19">
@@ -762,7 +762,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>mg/dl</t>
         </is>
       </c>
       <c r="D22">
@@ -857,7 +857,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>pg</t>
         </is>
       </c>
       <c r="D28">
@@ -877,7 +877,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>fl</t>
         </is>
       </c>
       <c r="D29">

--- a/clean/unit/clean_unit/08004C.xlsx
+++ b/clean/unit/clean_unit/08004C.xlsx
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>7665</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="14">

--- a/clean/unit/clean_unit/08004C.xlsx
+++ b/clean/unit/clean_unit/08004C.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Assay_Unit</t>
+          <t>Unit_Clean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
